--- a/allExpPaperInfoTop50_AT.xlsx
+++ b/allExpPaperInfoTop50_AT.xlsx
@@ -5,22 +5,285 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="257" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="5" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="217" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="PMID12445391" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="PMID17417969" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="PMID12529635" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="PMID18029348" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet2!$A$2:$F$51</definedName>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet2!$A$2:$F$51</definedName>
     <definedName function="false" hidden="false" name="__Anonymous_Sheet_DB__1" vbProcedure="false">Sheet2!$A$2:$F$51</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="Print_Area" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="Sheet_Title" vbProcedure="false">"Sheet1"</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="Print_Area" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="Sheet_Title" vbProcedure="false">"Sheet2"</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="true" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="389">
+  <si>
+    <t>GO-term</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>embryo development ending in birth or egg hatching</t>
+  </si>
+  <si>
+    <t>reproduction</t>
+  </si>
+  <si>
+    <t>nematode larval development</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>positive regulation of growth rate</t>
+  </si>
+  <si>
+    <t>cytokinesis</t>
+  </si>
+  <si>
+    <t>cell division</t>
+  </si>
+  <si>
+    <t>body morphogenesis</t>
+  </si>
+  <si>
+    <t>locomotion</t>
+  </si>
+  <si>
+    <t>positive regulation of embryonic development</t>
+  </si>
+  <si>
+    <t>meiotic chromosome segregation</t>
+  </si>
+  <si>
+    <t>oviposition</t>
+  </si>
+  <si>
+    <t>morphogenesis of an epithelium</t>
+  </si>
+  <si>
+    <t>gonad development</t>
+  </si>
+  <si>
+    <t>hermaphrodite genitalia development</t>
+  </si>
+  <si>
+    <t>positive regulation of multicellular organism growth</t>
+  </si>
+  <si>
+    <t>negative regulation of vulval development</t>
+  </si>
+  <si>
+    <t>negative regulation of multicellular organism growth</t>
+  </si>
+  <si>
+    <t>GO:0040007</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>GO:0002009</t>
+  </si>
+  <si>
+    <t>GO:0040010</t>
+  </si>
+  <si>
+    <t>GO:0008406</t>
+  </si>
+  <si>
+    <t>GO:0040019</t>
+  </si>
+  <si>
+    <t>GO:0045132</t>
+  </si>
+  <si>
+    <t>GO:0018991</t>
+  </si>
+  <si>
+    <t>GO:0000910</t>
+  </si>
+  <si>
+    <t>GO:0010171</t>
+  </si>
+  <si>
+    <t>GO:0040018</t>
+  </si>
+  <si>
+    <t>GO:0009792</t>
+  </si>
+  <si>
+    <t>GO:0040011</t>
+  </si>
+  <si>
+    <t>GO:0040035</t>
+  </si>
+  <si>
+    <t>GO:0000003</t>
+  </si>
+  <si>
+    <t>GO:0002119</t>
+  </si>
+  <si>
+    <t>GO:0040027</t>
+  </si>
+  <si>
+    <t>GO:0040015</t>
+  </si>
+  <si>
+    <t>GO:0051301</t>
+  </si>
+  <si>
+    <t>positive regulation of locomotion</t>
+  </si>
+  <si>
+    <t>molting cycle, collagen and cuticulin-based cuticle</t>
+  </si>
+  <si>
+    <t>collagen and cuticulin-based cuticle development</t>
+  </si>
+  <si>
+    <t>GO:0040002</t>
+  </si>
+  <si>
+    <t>GO:0018996</t>
+  </si>
+  <si>
+    <t>GO:0040017</t>
+  </si>
+  <si>
+    <t>determination of adult lifespan</t>
+  </si>
+  <si>
+    <t>post-embryonic body morphogenesis</t>
+  </si>
+  <si>
+    <t>embryo development</t>
+  </si>
+  <si>
+    <t>negative regulation of locomotion</t>
+  </si>
+  <si>
+    <t>GO:0040032</t>
+  </si>
+  <si>
+    <t>GO:0009790</t>
+  </si>
+  <si>
+    <t>GO:0040013</t>
+  </si>
+  <si>
+    <t>GO:0008340</t>
+  </si>
+  <si>
+    <t>nucleus</t>
+  </si>
+  <si>
+    <t>cytoplasm</t>
+  </si>
+  <si>
+    <t>nucleolus</t>
+  </si>
+  <si>
+    <t>plasma membrane</t>
+  </si>
+  <si>
+    <t>intracellular membrane-bounded organelle</t>
+  </si>
+  <si>
+    <t>mitochondrion</t>
+  </si>
+  <si>
+    <t>Golgi apparatus</t>
+  </si>
+  <si>
+    <t>centrosome</t>
+  </si>
+  <si>
+    <t>endoplasmic reticulum</t>
+  </si>
+  <si>
+    <t>actin cytoskeleton</t>
+  </si>
+  <si>
+    <t>microtubule cytoskeleton</t>
+  </si>
+  <si>
+    <t>nuclear membrane</t>
+  </si>
+  <si>
+    <t>intermediate filament cytoskeleton</t>
+  </si>
+  <si>
+    <t>cell junction</t>
+  </si>
+  <si>
+    <t>focal adhesion</t>
+  </si>
+  <si>
+    <t>aggresome</t>
+  </si>
+  <si>
+    <t>IDA</t>
+  </si>
+  <si>
+    <t>GO:0016235</t>
+  </si>
+  <si>
+    <t>GO:0031965</t>
+  </si>
+  <si>
+    <t>GO:0005925</t>
+  </si>
+  <si>
+    <t>GO:0005794</t>
+  </si>
+  <si>
+    <t>GO:0015630</t>
+  </si>
+  <si>
+    <t>GO:0045111</t>
+  </si>
+  <si>
+    <t>GO:0005739</t>
+  </si>
+  <si>
+    <t>GO:0015629</t>
+  </si>
+  <si>
+    <t>GO:0005730</t>
+  </si>
+  <si>
+    <t>GO:0005783</t>
+  </si>
+  <si>
+    <t>GO:0005634</t>
+  </si>
+  <si>
+    <t>GO:0030054</t>
+  </si>
+  <si>
+    <t>GO:0043231</t>
+  </si>
+  <si>
+    <t>GO:0005737</t>
+  </si>
+  <si>
+    <t>GO:0005886</t>
+  </si>
   <si>
     <t>Num Prots</t>
   </si>
@@ -88,102 +351,6 @@
     <t>GO:0005813</t>
   </si>
   <si>
-    <t>centrosome</t>
-  </si>
-  <si>
-    <t>IDA</t>
-  </si>
-  <si>
-    <t>GO:0016235</t>
-  </si>
-  <si>
-    <t>aggresome</t>
-  </si>
-  <si>
-    <t>GO:0031965</t>
-  </si>
-  <si>
-    <t>nuclear membrane</t>
-  </si>
-  <si>
-    <t>GO:0005925</t>
-  </si>
-  <si>
-    <t>focal adhesion</t>
-  </si>
-  <si>
-    <t>GO:0005794</t>
-  </si>
-  <si>
-    <t>Golgi apparatus</t>
-  </si>
-  <si>
-    <t>GO:0015630</t>
-  </si>
-  <si>
-    <t>microtubule cytoskeleton</t>
-  </si>
-  <si>
-    <t>GO:0045111</t>
-  </si>
-  <si>
-    <t>intermediate filament cytoskeleton</t>
-  </si>
-  <si>
-    <t>GO:0005739</t>
-  </si>
-  <si>
-    <t>mitochondrion</t>
-  </si>
-  <si>
-    <t>GO:0015629</t>
-  </si>
-  <si>
-    <t>actin cytoskeleton</t>
-  </si>
-  <si>
-    <t>GO:0005730</t>
-  </si>
-  <si>
-    <t>nucleolus</t>
-  </si>
-  <si>
-    <t>GO:0005783</t>
-  </si>
-  <si>
-    <t>endoplasmic reticulum</t>
-  </si>
-  <si>
-    <t>GO:0005634</t>
-  </si>
-  <si>
-    <t>nucleus</t>
-  </si>
-  <si>
-    <t>GO:0030054</t>
-  </si>
-  <si>
-    <t>cell junction</t>
-  </si>
-  <si>
-    <t>GO:0043231</t>
-  </si>
-  <si>
-    <t>intracellular membrane-bounded organelle</t>
-  </si>
-  <si>
-    <t>GO:0005737</t>
-  </si>
-  <si>
-    <t>cytoplasm</t>
-  </si>
-  <si>
-    <t>GO:0005886</t>
-  </si>
-  <si>
-    <t>plasma membrane</t>
-  </si>
-  <si>
     <t>ORFeome cloning and global analysis of protein localization in the fission yeast Schizosaccharomyces pombe.</t>
   </si>
   <si>
@@ -280,129 +447,6 @@
     <t>PLoS biology</t>
   </si>
   <si>
-    <t>GO:0040007</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>IMP</t>
-  </si>
-  <si>
-    <t>GO:0040032</t>
-  </si>
-  <si>
-    <t>post-embryonic body morphogenesis</t>
-  </si>
-  <si>
-    <t>GO:0040017</t>
-  </si>
-  <si>
-    <t>positive regulation of locomotion</t>
-  </si>
-  <si>
-    <t>GO:0040010</t>
-  </si>
-  <si>
-    <t>positive regulation of growth rate</t>
-  </si>
-  <si>
-    <t>GO:0040018</t>
-  </si>
-  <si>
-    <t>positive regulation of multicellular organism growth</t>
-  </si>
-  <si>
-    <t>GO:0040002</t>
-  </si>
-  <si>
-    <t>collagen and cuticulin-based cuticle development</t>
-  </si>
-  <si>
-    <t>GO:0009790</t>
-  </si>
-  <si>
-    <t>embryo development</t>
-  </si>
-  <si>
-    <t>GO:0018996</t>
-  </si>
-  <si>
-    <t>molting cycle, collagen and cuticulin-based cuticle</t>
-  </si>
-  <si>
-    <t>GO:0018991</t>
-  </si>
-  <si>
-    <t>oviposition</t>
-  </si>
-  <si>
-    <t>GO:0002009</t>
-  </si>
-  <si>
-    <t>morphogenesis of an epithelium</t>
-  </si>
-  <si>
-    <t>GO:0010171</t>
-  </si>
-  <si>
-    <t>body morphogenesis</t>
-  </si>
-  <si>
-    <t>GO:0009792</t>
-  </si>
-  <si>
-    <t>embryo development ending in birth or egg hatching</t>
-  </si>
-  <si>
-    <t>GO:0040013</t>
-  </si>
-  <si>
-    <t>negative regulation of locomotion</t>
-  </si>
-  <si>
-    <t>GO:0040011</t>
-  </si>
-  <si>
-    <t>locomotion</t>
-  </si>
-  <si>
-    <t>GO:0040035</t>
-  </si>
-  <si>
-    <t>hermaphrodite genitalia development</t>
-  </si>
-  <si>
-    <t>GO:0000003</t>
-  </si>
-  <si>
-    <t>reproduction</t>
-  </si>
-  <si>
-    <t>GO:0002119</t>
-  </si>
-  <si>
-    <t>nematode larval development</t>
-  </si>
-  <si>
-    <t>GO:0040027</t>
-  </si>
-  <si>
-    <t>negative regulation of vulval development</t>
-  </si>
-  <si>
-    <t>GO:0040015</t>
-  </si>
-  <si>
-    <t>negative regulation of multicellular organism growth</t>
-  </si>
-  <si>
-    <t>GO:0008340</t>
-  </si>
-  <si>
-    <t>determination of adult lifespan</t>
-  </si>
-  <si>
     <t>Global analysis of protein localization in budding yeast.</t>
   </si>
   <si>
@@ -472,12 +516,6 @@
     <t>Full-genome RNAi profiling of early embryogenesis in Caenorhabditis elegans.</t>
   </si>
   <si>
-    <t>GO:0000910</t>
-  </si>
-  <si>
-    <t>cytokinesis</t>
-  </si>
-  <si>
     <t>GO:0035046</t>
   </si>
   <si>
@@ -493,12 +531,6 @@
     <t>Systematic functional analysis of the Caenorhabditis elegans genome using RNAi.</t>
   </si>
   <si>
-    <t>GO:0045132</t>
-  </si>
-  <si>
-    <t>meiotic chromosome segregation</t>
-  </si>
-  <si>
     <t>GO:0040026</t>
   </si>
   <si>
@@ -676,12 +708,6 @@
     <t>apoptotic process</t>
   </si>
   <si>
-    <t>GO:0008406</t>
-  </si>
-  <si>
-    <t>gonad development</t>
-  </si>
-  <si>
     <t>GO:0016477</t>
   </si>
   <si>
@@ -806,18 +832,6 @@
   </si>
   <si>
     <t>Gene clustering based on RNAi phenotypes of ovary-enriched genes in C. elegans.</t>
-  </si>
-  <si>
-    <t>GO:0040019</t>
-  </si>
-  <si>
-    <t>positive regulation of embryonic development</t>
-  </si>
-  <si>
-    <t>GO:0051301</t>
-  </si>
-  <si>
-    <t>cell division</t>
   </si>
   <si>
     <t>The vegetative vacuole proteome of Arabidopsis thaliana reveals predicted and unexpected proteins.</t>
@@ -1190,7 +1204,7 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <name val="Sans"/>
       <family val="2"/>
@@ -1215,6 +1229,16 @@
       <name val="Sans"/>
       <family val="2"/>
       <color rgb="00000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
       <sz val="10"/>
     </font>
     <font>
@@ -1280,7 +1304,7 @@
   <cellXfs count="6">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="20"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1306,10 +1330,319 @@
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
     <cellStyle builtinId="54" customBuiltin="true" name="Gnumeric-default" xfId="20"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00B3B3B3"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00004586"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PMID18029348!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>PMID18029348!$B$2:$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>nucleus</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cytoplasm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>nucleolus</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>plasma membrane</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>intracellular membrane-bounded organelle</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mitochondrion</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Golgi apparatus</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>centrosome</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>endoplasmic reticulum</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>actin cytoskeleton</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>microtubule cytoskeleton</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>nuclear membrane</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>intermediate filament cytoskeleton</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>cell junction</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>focal adhesion</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>aggresome</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PMID18029348!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2594</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2467</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="73704983"/>
+        <c:axId val="98495147"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="73704983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98495147"/>
+        <c:crossesAt val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="98495147"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73704983"/>
+        <c:crossesAt val="0"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>614160</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476280</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>59760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="614160" y="114480"/>
+        <a:ext cx="11165040" cy="4334400"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
@@ -1318,202 +1651,1944 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="B2:C74"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B8" activeCellId="0" pane="topLeft" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.6294642857143"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
+      <c r="B2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>342</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
+      <c r="B23" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
+      <c r="B26" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
+      <c r="B28" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
+      <c r="B29" s="1" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
+      <c r="B30" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
+      <c r="B31" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="32">
+      <c r="B32" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
+      <c r="B33" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
+      <c r="B34" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
+      <c r="B35" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
+      <c r="B36" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
+      <c r="B37" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
+      <c r="B38" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
+      <c r="B39" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
+      <c r="B40" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
+      <c r="B41" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
+      <c r="B42" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
+      <c r="B43" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
+      <c r="B44" s="1" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
+      <c r="B45" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="46">
+      <c r="B46" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
+      <c r="B47" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
+      <c r="B48" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="49">
+      <c r="B49" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
+      <c r="B50" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
+      <c r="B51" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="52">
+      <c r="B52" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
+      <c r="B53" s="1" t="n">
+        <v>342</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="54">
+      <c r="B54" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="55">
+      <c r="B55" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="56">
+      <c r="B56" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="57">
+      <c r="B57" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="58">
+      <c r="B58" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59">
+      <c r="B59" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="60">
+      <c r="B60" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="61">
+      <c r="B61" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="62">
+      <c r="B62" s="1" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="63">
+      <c r="B63" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="64">
+      <c r="B64" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
+      <c r="B65" s="1" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
+      <c r="B66" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="67">
+      <c r="B67" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="68">
+      <c r="B68" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
+      <c r="B69" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="70">
+      <c r="B70" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
+      <c r="B71" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="72">
+      <c r="B72" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="73">
+      <c r="B73" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
+      <c r="B74" s="1" t="n">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:C65"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B7" activeCellId="0" pane="topLeft" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.875"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1335</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1236</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1203</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>742</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>663</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>257</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
+      <c r="B20" s="1" t="n">
+        <v>1203</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
+      <c r="B23" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
+      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
+      <c r="B26" s="1" t="n">
+        <v>257</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
+      <c r="B27" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
+      <c r="B28" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
+      <c r="B29" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
+      <c r="B30" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
+      <c r="B31" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="32">
+      <c r="B32" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
+      <c r="B33" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
+      <c r="B34" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
+      <c r="B35" s="1" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
+      <c r="B36" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
+      <c r="B37" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
+      <c r="B38" s="1" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
+      <c r="B39" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
+      <c r="B40" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
+      <c r="B41" s="1" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
+      <c r="B42" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
+      <c r="B43" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
+      <c r="B44" s="1" t="n">
+        <v>742</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
+      <c r="B45" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="46">
+      <c r="B46" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
+      <c r="B47" s="1" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
+      <c r="B48" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="49">
+      <c r="B49" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
+      <c r="B50" s="1" t="n">
+        <v>663</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
+      <c r="B51" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="52">
+      <c r="B52" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
+      <c r="B53" s="1" t="n">
+        <v>1335</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="54">
+      <c r="B54" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="55">
+      <c r="B55" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="56">
+      <c r="B56" s="1" t="n">
+        <v>1236</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="57">
+      <c r="B57" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="58">
+      <c r="B58" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59">
+      <c r="B59" s="1" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="60">
+      <c r="B60" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="61">
+      <c r="B61" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="62">
+      <c r="B62" s="1" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="63">
+      <c r="B63" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="64">
+      <c r="B64" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
+      <c r="B65" s="1" t="n">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:C80"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B14" activeCellId="0" pane="topLeft" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3794642857143"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1094</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>908</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>866</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>834</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>774</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>517</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
+      <c r="B23" s="1" t="n">
+        <v>866</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
+      <c r="B26" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
+      <c r="B27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
+      <c r="B28" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
+      <c r="B29" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
+      <c r="B30" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
+      <c r="B31" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="32">
+      <c r="B32" s="1" t="n">
+        <v>774</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
+      <c r="B33" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
+      <c r="B34" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
+      <c r="B35" s="1" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
+      <c r="B36" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
+      <c r="B37" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
+      <c r="B38" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
+      <c r="B39" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
+      <c r="B40" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
+      <c r="B41" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
+      <c r="B42" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
+      <c r="B43" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
+      <c r="B44" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
+      <c r="B45" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="46">
+      <c r="B46" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
+      <c r="B47" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
+      <c r="B48" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="49">
+      <c r="B49" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
+      <c r="B50" s="1" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
+      <c r="B51" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="52">
+      <c r="B52" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
+      <c r="B53" s="1" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="54">
+      <c r="B54" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="55">
+      <c r="B55" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="56">
+      <c r="B56" s="1" t="n">
+        <v>1094</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="57">
+      <c r="B57" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="58">
+      <c r="B58" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59">
+      <c r="B59" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="60">
+      <c r="B60" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="61">
+      <c r="B61" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="62">
+      <c r="B62" s="1" t="n">
+        <v>834</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="63">
+      <c r="B63" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="64">
+      <c r="B64" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
+      <c r="B65" s="1" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
+      <c r="B66" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="67">
+      <c r="B67" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="68">
+      <c r="B68" s="1" t="n">
+        <v>517</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="69">
+      <c r="B69" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="70">
+      <c r="B70" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
+      <c r="B71" s="1" t="n">
+        <v>908</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="72">
+      <c r="B72" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="73">
+      <c r="B73" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="74">
+      <c r="B74" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="75">
+      <c r="B75" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="76">
+      <c r="B76" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="77">
+      <c r="B77" s="1" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="78">
+      <c r="B78" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="79">
+      <c r="B79" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="80">
+      <c r="B80" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:C64"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A2" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F29" activeCellId="0" pane="topLeft" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.2142857142857"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>2825</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>2594</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>2467</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>611</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>576</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>556</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>407</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
+      <c r="B11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
+      <c r="B12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
+      <c r="B13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
+      <c r="B14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
+      <c r="B15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
+      <c r="B16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
+      <c r="B17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
+      <c r="B19" s="1" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
+      <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
+      <c r="B21" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
+      <c r="B22" s="1" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
+      <c r="B23" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
+      <c r="B24" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
+      <c r="B25" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
+      <c r="B26" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
+      <c r="B27" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
+      <c r="B28" s="1" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
+      <c r="B29" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
+      <c r="B30" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
+      <c r="B31" s="1" t="n">
+        <v>407</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="32">
+      <c r="B32" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
+      <c r="B33" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
+      <c r="B34" s="1" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
+      <c r="B35" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
+      <c r="B36" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
+      <c r="B37" s="1" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
+      <c r="B38" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
+      <c r="B39" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
+      <c r="B40" s="1" t="n">
+        <v>556</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
+      <c r="B41" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
+      <c r="B42" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
+      <c r="B43" s="1" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
+      <c r="B44" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
+      <c r="B45" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="46">
+      <c r="B46" s="1" t="n">
+        <v>2467</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
+      <c r="B47" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
+      <c r="B48" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="49">
+      <c r="B49" s="1" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
+      <c r="B50" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
+      <c r="B51" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="52">
+      <c r="B52" s="1" t="n">
+        <v>2825</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
+      <c r="B53" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="54">
+      <c r="B54" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="55">
+      <c r="B55" s="1" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="56">
+      <c r="B56" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="57">
+      <c r="B57" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="58">
+      <c r="B58" s="1" t="n">
+        <v>576</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59">
+      <c r="B59" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="60">
+      <c r="B60" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="61">
+      <c r="B61" s="1" t="n">
+        <v>2594</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="62">
+      <c r="B62" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="63">
+      <c r="B63" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="64">
+      <c r="B64" s="1" t="n">
+        <v>611</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:IV54"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="BY35" activeCellId="0" pane="topLeft" sqref="BY35"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="CH14" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="P35" activeCellId="0" pane="topLeft" sqref="P35"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.97254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1960784313725"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23529411764706"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="157.086274509804"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.68627450980392"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="60.0627450980392"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.58823529411765"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="9.46274509803922"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.48235294117647"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="7.87450980392157"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="7.3843137254902"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.11764705882353"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.25490196078431"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="33.721568627451"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="7.50196078431373"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.85490196078431"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="37.1529411764706"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="37.1529411764706"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="36.1725490196078"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="37.1529411764706"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="38.0078431372549"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="4.8078431372549"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="37.0274509803922"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="37.0274509803922"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="37.0274509803922"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="37.1529411764706"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="4.8078431372549"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="38.0078431372549"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="37.1529411764706"/>
-    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="4.8078431372549"/>
-    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="65" min="65" style="0" width="37.643137254902"/>
-    <col collapsed="false" hidden="false" max="66" min="66" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="67" min="67" style="0" width="4.8078431372549"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="38.0078431372549"/>
-    <col collapsed="false" hidden="false" max="70" min="70" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="72" min="72" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="0" width="37.1529411764706"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="75" min="75" style="0" width="4.8078431372549"/>
-    <col collapsed="false" hidden="false" max="76" min="76" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="77" min="77" style="0" width="30.7803921568627"/>
-    <col collapsed="false" hidden="false" max="78" min="78" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="79" min="79" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="80" min="80" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="81" min="81" style="0" width="37.643137254902"/>
-    <col collapsed="false" hidden="false" max="82" min="82" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="84" min="84" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="85" min="85" style="0" width="37.643137254902"/>
-    <col collapsed="false" hidden="false" max="86" min="86" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="87" min="87" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="88" min="88" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="89" min="89" style="0" width="37.643137254902"/>
-    <col collapsed="false" hidden="false" max="90" min="90" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="91" min="91" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="92" min="92" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="93" min="93" style="0" width="37.643137254902"/>
-    <col collapsed="false" hidden="false" max="94" min="94" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="95" min="95" style="0" width="3.09019607843137"/>
-    <col collapsed="false" hidden="false" max="96" min="96" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="97" min="97" style="0" width="22.6941176470588"/>
-    <col collapsed="false" hidden="false" max="98" min="98" style="0" width="4.07058823529412"/>
-    <col collapsed="false" hidden="false" max="99" min="99" style="0" width="3.09019607843137"/>
-    <col collapsed="false" hidden="false" max="100" min="100" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="101" min="101" style="0" width="30.2901960784314"/>
-    <col collapsed="false" hidden="false" max="102" min="102" style="0" width="4.31764705882353"/>
-    <col collapsed="false" hidden="false" max="103" min="103" style="0" width="2.23529411764706"/>
-    <col collapsed="false" hidden="false" max="104" min="104" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="105" min="105" style="0" width="37.0274509803922"/>
-    <col collapsed="false" hidden="false" max="106" min="106" style="0" width="4.31764705882353"/>
-    <col collapsed="false" hidden="false" max="107" min="107" style="0" width="3.09019607843137"/>
-    <col collapsed="false" hidden="false" max="108" min="108" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="109" min="109" style="0" width="15.9607843137255"/>
-    <col collapsed="false" hidden="false" max="110" min="110" style="0" width="4.31764705882353"/>
-    <col collapsed="false" hidden="false" max="111" min="111" style="0" width="2.23529411764706"/>
-    <col collapsed="false" hidden="false" max="112" min="112" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="113" min="113" style="0" width="23.921568627451"/>
-    <col collapsed="false" hidden="false" max="114" min="114" style="0" width="4.31764705882353"/>
-    <col collapsed="false" hidden="false" max="115" min="115" style="0" width="2.23529411764706"/>
-    <col collapsed="false" hidden="false" max="116" min="116" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="117" min="117" style="0" width="26.7411764705882"/>
-    <col collapsed="false" hidden="false" max="118" min="118" style="0" width="4.31764705882353"/>
-    <col collapsed="false" hidden="false" max="119" min="119" style="0" width="3.09019607843137"/>
-    <col collapsed="false" hidden="false" max="120" min="120" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="121" min="121" style="0" width="17.7921568627451"/>
-    <col collapsed="false" hidden="false" max="122" min="122" style="0" width="4.31764705882353"/>
-    <col collapsed="false" hidden="false" max="123" min="123" style="0" width="2.23529411764706"/>
-    <col collapsed="false" hidden="false" max="124" min="124" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="125" min="125" style="0" width="24.7803921568627"/>
-    <col collapsed="false" hidden="false" max="126" min="126" style="0" width="4.31764705882353"/>
-    <col collapsed="false" hidden="false" max="127" min="127" style="0" width="2.23529411764706"/>
-    <col collapsed="false" hidden="false" max="128" min="128" style="0" width="10.3254901960784"/>
-    <col collapsed="false" hidden="false" max="129" min="129" style="0" width="15.7137254901961"/>
-    <col collapsed="false" hidden="false" max="130" min="130" style="0" width="4.31764705882353"/>
-    <col collapsed="false" hidden="false" max="131" min="131" style="0" width="2.23529411764706"/>
-    <col collapsed="false" hidden="false" max="256" min="132" style="0" width="7.58823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.9375"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.15625"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.20535714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="156.482142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.66964285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="59.8303571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.55357142857143"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="9.42410714285714"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.45089285714286"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="7.84375"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="7.35267857142857"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.08928571428571"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.22767857142857"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="33.59375"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="7.47321428571429"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.82142857142857"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="37.0089285714286"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="4.05357142857143"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="3.9375"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="37.0089285714286"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="4.05357142857143"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="3.9375"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="36.0357142857143"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="4.05357142857143"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.9375"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="37.0089285714286"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="4.05357142857143"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="3.9375"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="37.8616071428571"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="4.05357142857143"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="4.78571428571429"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="36.8839285714286"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="4.05357142857143"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="3.9375"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="36.8839285714286"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="4.05357142857143"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="3.9375"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="36.8839285714286"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="4.05357142857143"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="3.9375"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="37.0089285714286"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="4.05357142857143"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="4.78571428571429"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="37.8616071428571"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="4.05357142857143"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="3.9375"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="37.0089285714286"/>
+    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="4.05357142857143"/>
+    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="4.78571428571429"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="65" min="65" style="0" width="37.5"/>
+    <col collapsed="false" hidden="false" max="66" min="66" style="0" width="4.05357142857143"/>
+    <col collapsed="false" hidden="false" max="67" min="67" style="0" width="4.78571428571429"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="37.8616071428571"/>
+    <col collapsed="false" hidden="false" max="70" min="70" style="0" width="4.05357142857143"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="0" width="3.9375"/>
+    <col collapsed="false" hidden="false" max="72" min="72" style="0" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="0" width="37.0089285714286"/>
+    <col collapsed="false" hidden="false" max="74" min="74" style="0" width="4.05357142857143"/>
+    <col collapsed="false" hidden="false" max="75" min="75" style="0" width="4.78571428571429"/>
+    <col collapsed="false" hidden="false" max="76" min="76" style="0" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="77" min="77" style="0" width="30.6651785714286"/>
+    <col collapsed="false" hidden="false" max="78" min="78" style="0" width="4.05357142857143"/>
+    <col collapsed="false" hidden="false" max="79" min="79" style="0" width="3.9375"/>
+    <col collapsed="false" hidden="false" max="80" min="80" style="0" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="81" min="81" style="0" width="37.5"/>
+    <col collapsed="false" hidden="false" max="82" min="82" style="0" width="4.05357142857143"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="3.9375"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="0" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="85" min="85" style="0" width="37.5"/>
+    <col collapsed="false" hidden="false" max="86" min="86" style="0" width="4.05357142857143"/>
+    <col collapsed="false" hidden="false" max="87" min="87" style="0" width="3.9375"/>
+    <col collapsed="false" hidden="false" max="88" min="88" style="0" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="89" min="89" style="0" width="37.5"/>
+    <col collapsed="false" hidden="false" max="90" min="90" style="0" width="4.05357142857143"/>
+    <col collapsed="false" hidden="false" max="91" min="91" style="0" width="3.9375"/>
+    <col collapsed="false" hidden="false" max="92" min="92" style="0" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="93" min="93" style="0" width="37.5"/>
+    <col collapsed="false" hidden="false" max="94" min="94" style="0" width="4.05357142857143"/>
+    <col collapsed="false" hidden="false" max="95" min="95" style="0" width="3.08035714285714"/>
+    <col collapsed="false" hidden="false" max="96" min="96" style="0" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="97" min="97" style="0" width="22.6071428571429"/>
+    <col collapsed="false" hidden="false" max="98" min="98" style="0" width="4.05357142857143"/>
+    <col collapsed="false" hidden="false" max="99" min="99" style="0" width="3.08035714285714"/>
+    <col collapsed="false" hidden="false" max="100" min="100" style="0" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="101" min="101" style="0" width="30.1741071428571"/>
+    <col collapsed="false" hidden="false" max="102" min="102" style="0" width="4.29910714285714"/>
+    <col collapsed="false" hidden="false" max="103" min="103" style="0" width="2.22767857142857"/>
+    <col collapsed="false" hidden="false" max="104" min="104" style="0" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="105" min="105" style="0" width="36.8839285714286"/>
+    <col collapsed="false" hidden="false" max="106" min="106" style="0" width="4.29910714285714"/>
+    <col collapsed="false" hidden="false" max="107" min="107" style="0" width="3.08035714285714"/>
+    <col collapsed="false" hidden="false" max="108" min="108" style="0" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="109" min="109" style="0" width="15.8973214285714"/>
+    <col collapsed="false" hidden="false" max="110" min="110" style="0" width="4.29910714285714"/>
+    <col collapsed="false" hidden="false" max="111" min="111" style="0" width="2.22767857142857"/>
+    <col collapsed="false" hidden="false" max="112" min="112" style="0" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="113" min="113" style="0" width="23.8303571428571"/>
+    <col collapsed="false" hidden="false" max="114" min="114" style="0" width="4.29910714285714"/>
+    <col collapsed="false" hidden="false" max="115" min="115" style="0" width="2.22767857142857"/>
+    <col collapsed="false" hidden="false" max="116" min="116" style="0" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="117" min="117" style="0" width="26.6383928571429"/>
+    <col collapsed="false" hidden="false" max="118" min="118" style="0" width="4.29910714285714"/>
+    <col collapsed="false" hidden="false" max="119" min="119" style="0" width="3.08035714285714"/>
+    <col collapsed="false" hidden="false" max="120" min="120" style="0" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="121" min="121" style="0" width="17.7276785714286"/>
+    <col collapsed="false" hidden="false" max="122" min="122" style="0" width="4.29910714285714"/>
+    <col collapsed="false" hidden="false" max="123" min="123" style="0" width="2.22767857142857"/>
+    <col collapsed="false" hidden="false" max="124" min="124" style="0" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="125" min="125" style="0" width="24.6875"/>
+    <col collapsed="false" hidden="false" max="126" min="126" style="0" width="4.29910714285714"/>
+    <col collapsed="false" hidden="false" max="127" min="127" style="0" width="2.22767857142857"/>
+    <col collapsed="false" hidden="false" max="128" min="128" style="0" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="129" min="129" style="0" width="15.65625"/>
+    <col collapsed="false" hidden="false" max="130" min="130" style="0" width="4.29910714285714"/>
+    <col collapsed="false" hidden="false" max="131" min="131" style="0" width="2.22767857142857"/>
+    <col collapsed="false" hidden="false" max="256" min="132" style="0" width="7.55803571428571"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -1753,7 +3828,7 @@
       <c r="IU1" s="1"/>
       <c r="IV1" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="1" t="n">
         <v>4937</v>
       </c>
@@ -1764,13 +3839,13 @@
         <v>18029348</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>2008</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>0</v>
@@ -1800,193 +3875,193 @@
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="S2" s="1" t="n">
         <v>192</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="W2" s="1" t="n">
         <v>29</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AA2" s="1" t="n">
         <v>100</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AE2" s="1" t="n">
         <v>87</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AI2" s="1" t="n">
         <v>407</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AM2" s="1" t="n">
         <v>131</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AQ2" s="1" t="n">
         <v>97</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AU2" s="1" t="n">
         <v>556</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AY2" s="1" t="n">
         <v>134</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="BC2" s="1" t="n">
         <v>2467</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="BG2" s="1" t="n">
         <v>156</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="BK2" s="1" t="n">
         <v>2825</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="BM2" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="BO2" s="1" t="n">
         <v>88</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="BS2" s="1" t="n">
         <v>576</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="BU2" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="BW2" s="1" t="n">
         <v>2594</v>
       </c>
       <c r="BX2" s="1" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="BY2" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="CA2" s="1" t="n">
         <v>611</v>
@@ -2180,13 +4255,13 @@
         <v>16823372</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>2006</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>0</v>
@@ -2216,241 +4291,241 @@
         <v>0</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="S3" s="1" t="n">
         <v>191</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="W3" s="1" t="n">
         <v>223</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AA3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AE3" s="1" t="n">
         <v>82</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AI3" s="1" t="n">
         <v>37</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AM3" s="1" t="n">
         <v>14</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AQ3" s="1" t="n">
         <v>232</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AU3" s="1" t="n">
         <v>449</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AY3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="BC3" s="1" t="n">
         <v>2208</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="BE3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BF3" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="BG3" s="1" t="n">
         <v>47</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="BK3" s="1" t="n">
         <v>463</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="BO3" s="1" t="n">
         <v>2211</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="BS3" s="1" t="n">
         <v>62</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="BU3" s="1" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="BW3" s="1" t="n">
         <v>223</v>
       </c>
       <c r="BX3" s="1" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="BY3" s="1" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="CA3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="CB3" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="CC3" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="CD3" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="CE3" s="1" t="n">
         <v>470</v>
       </c>
       <c r="CF3" s="1" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="CG3" s="1" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="CI3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="CJ3" s="1" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="CL3" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="CM3" s="1" t="n">
         <v>118</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="CO3" s="1" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="CP3" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="CQ3" s="1" t="n">
         <v>10</v>
@@ -2628,13 +4703,13 @@
         <v>18614015</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>2008</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>0</v>
@@ -2664,13 +4739,13 @@
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="S4" s="1" t="n">
         <v>2412</v>
@@ -2924,13 +4999,13 @@
         <v>14551910</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>2003</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>0</v>
@@ -2960,241 +5035,241 @@
         <v>0</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="S5" s="1" t="n">
         <v>866</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="W5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AA5" s="1" t="n">
         <v>50</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AE5" s="1" t="n">
         <v>774</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AI5" s="1" t="n">
         <v>68</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AM5" s="1" t="n">
         <v>23</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AQ5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AU5" s="1" t="n">
         <v>9</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AY5" s="1" t="n">
         <v>67</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="BA5" s="1" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="BB5" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BC5" s="1" t="n">
         <v>124</v>
       </c>
       <c r="BD5" s="1" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="BE5" s="1" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BG5" s="1" t="n">
         <v>264</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="BI5" s="1" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BK5" s="1" t="n">
         <v>1094</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="BM5" s="1" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BO5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="BQ5" s="1" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="BR5" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BS5" s="1" t="n">
         <v>834</v>
       </c>
       <c r="BT5" s="1" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="BU5" s="1" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="BV5" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BW5" s="1" t="n">
         <v>273</v>
       </c>
       <c r="BX5" s="1" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="BY5" s="1" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="CA5" s="1" t="n">
         <v>517</v>
       </c>
       <c r="CB5" s="1" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="CC5" s="1" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="CD5" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="CE5" s="1" t="n">
         <v>908</v>
       </c>
       <c r="CF5" s="1" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="CG5" s="1" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="CI5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="CJ5" s="1" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="CL5" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="CM5" s="1" t="n">
         <v>29</v>
       </c>
       <c r="CN5" s="1" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="CO5" s="1" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="CP5" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="CQ5" s="1" t="n">
         <v>11</v>
@@ -3372,13 +5447,13 @@
         <v>14562095</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>2003</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>0</v>
@@ -3408,253 +5483,253 @@
         <v>0</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="S6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="W6" s="1" t="n">
         <v>55</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AA6" s="1" t="n">
         <v>22</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AE6" s="1" t="n">
         <v>9</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="AG6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH6" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="AI6" s="1" t="n">
         <v>24</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AM6" s="1" t="n">
         <v>14</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AQ6" s="1" t="n">
         <v>44</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AU6" s="1" t="n">
         <v>177</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AY6" s="1" t="n">
         <v>10</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="BA6" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="BB6" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="BC6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="BD6" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="BE6" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="BF6" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="BG6" s="1" t="n">
         <v>9</v>
       </c>
       <c r="BH6" s="1" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="BI6" s="1" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="BJ6" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="BK6" s="1" t="n">
         <v>2</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="BM6" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="BN6" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="BO6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="BP6" s="1" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="BQ6" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="BR6" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="BS6" s="1" t="n">
         <v>16</v>
       </c>
       <c r="BT6" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="BU6" s="1" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="BV6" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="BW6" s="1" t="n">
         <v>12</v>
       </c>
       <c r="BX6" s="1" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="BY6" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="BZ6" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="CA6" s="1" t="n">
         <v>512</v>
       </c>
       <c r="CB6" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="CC6" s="1" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="CD6" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="CE6" s="1" t="n">
         <v>3</v>
       </c>
       <c r="CF6" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="CG6" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="CH6" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="CI6" s="1" t="n">
         <v>94</v>
       </c>
       <c r="CJ6" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="CK6" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="CL6" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="CM6" s="1" t="n">
         <v>851</v>
       </c>
       <c r="CN6" s="1" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="CO6" s="1" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="CP6" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="CQ6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="CR6" s="1" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="CS6" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="CT6" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="CU6" s="1" t="n">
         <v>1</v>
@@ -3828,13 +5903,13 @@
         <v>18431481</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>2008</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>0</v>
@@ -3864,13 +5939,13 @@
         <v>0</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="S7" s="1" t="n">
         <v>1251</v>
@@ -4124,13 +6199,13 @@
         <v>15791247</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>2005</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>0</v>
@@ -4160,109 +6235,109 @@
         <v>0</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="S8" s="1" t="n">
         <v>2</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="W8" s="1" t="n">
         <v>2</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AA8" s="1" t="n">
         <v>15</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AE8" s="1" t="n">
         <v>19</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AI8" s="1" t="n">
         <v>13</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AM8" s="1" t="n">
         <v>1234</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AQ8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AU8" s="1" t="n">
         <v>148</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="AW8" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AY8" s="1" t="n">
         <v>36</v>
@@ -4484,13 +6559,13 @@
         <v>14651853</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>2003</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>0</v>
@@ -4520,13 +6595,13 @@
         <v>0</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="S9" s="1" t="n">
         <v>1213</v>
@@ -4780,13 +6855,13 @@
         <v>17317660</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>2007</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>0</v>
@@ -4816,13 +6891,13 @@
         <v>0</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="S10" s="1" t="n">
         <v>1136</v>
@@ -5076,13 +7151,13 @@
         <v>12529635</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>2003</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>0</v>
@@ -5112,253 +7187,253 @@
         <v>0</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="S11" s="1" t="n">
         <v>18</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="W11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AA11" s="1" t="n">
         <v>62</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AE11" s="1" t="n">
         <v>456</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AI11" s="1" t="n">
         <v>5</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AM11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AN11" s="1" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AQ11" s="1" t="n">
         <v>238</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AU11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="AV11" s="1" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="AW11" s="1" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="AX11" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AY11" s="1" t="n">
         <v>26</v>
       </c>
       <c r="AZ11" s="1" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="BA11" s="1" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="BB11" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BC11" s="1" t="n">
         <v>29</v>
       </c>
       <c r="BD11" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="BE11" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="BF11" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BG11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="BH11" s="1" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="BI11" s="1" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="BJ11" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BK11" s="1" t="n">
         <v>69</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="BM11" s="1" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="BN11" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BO11" s="1" t="n">
         <v>158</v>
       </c>
       <c r="BP11" s="1" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="BQ11" s="1" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="BR11" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BS11" s="1" t="n">
         <v>568</v>
       </c>
       <c r="BT11" s="1" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="BU11" s="1" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="BV11" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BW11" s="1" t="n">
         <v>19</v>
       </c>
       <c r="BX11" s="1" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="BY11" s="1" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="BZ11" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="CA11" s="1" t="n">
         <v>74</v>
       </c>
       <c r="CB11" s="1" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="CC11" s="1" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="CD11" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="CE11" s="1" t="n">
         <v>321</v>
       </c>
       <c r="CF11" s="1" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="CG11" s="1" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="CH11" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="CI11" s="1" t="n">
         <v>134</v>
       </c>
       <c r="CJ11" s="1" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="CK11" s="1" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="CL11" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="CM11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="CN11" s="1" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="CO11" s="1" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="CP11" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="CQ11" s="1" t="n">
         <v>25</v>
       </c>
       <c r="CR11" s="1" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="CS11" s="1" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="CT11" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="CU11" s="1" t="n">
         <v>45</v>
@@ -5532,13 +7607,13 @@
         <v>15525680</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>2005</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>0</v>
@@ -5568,37 +7643,37 @@
         <v>0</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="S12" s="1" t="n">
         <v>355</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="W12" s="1" t="n">
         <v>306</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AA12" s="1" t="n">
         <v>704</v>
@@ -5844,13 +7919,13 @@
         <v>21166475</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>2011</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>0</v>
@@ -5880,13 +7955,13 @@
         <v>0</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="S13" s="1" t="n">
         <v>1041</v>
@@ -6140,13 +8215,13 @@
         <v>15489339</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>2004</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>0</v>
@@ -6176,205 +8251,205 @@
         <v>0</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="S14" s="1" t="n">
         <v>271</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="W14" s="1" t="n">
         <v>34</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AA14" s="1" t="n">
         <v>32</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AE14" s="1" t="n">
         <v>25</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AI14" s="1" t="n">
         <v>15</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AM14" s="1" t="n">
         <v>18</v>
       </c>
       <c r="AN14" s="1" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AQ14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="AS14" s="1" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AU14" s="1" t="n">
         <v>18</v>
       </c>
       <c r="AV14" s="1" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="AW14" s="1" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="AX14" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AY14" s="1" t="n">
         <v>28</v>
       </c>
       <c r="AZ14" s="1" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="BA14" s="1" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="BB14" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BC14" s="1" t="n">
         <v>303</v>
       </c>
       <c r="BD14" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="BE14" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="BF14" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BG14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="BH14" s="1" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="BI14" s="1" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="BJ14" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BK14" s="1" t="n">
         <v>7</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="BM14" s="1" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="BN14" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BO14" s="1" t="n">
         <v>120</v>
       </c>
       <c r="BP14" s="1" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="BQ14" s="1" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="BR14" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BS14" s="1" t="n">
         <v>263</v>
       </c>
       <c r="BT14" s="1" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="BU14" s="1" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="BV14" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BW14" s="1" t="n">
         <v>385</v>
       </c>
       <c r="BX14" s="1" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="BY14" s="1" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="BZ14" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="CA14" s="1" t="n">
         <v>2</v>
       </c>
       <c r="CB14" s="1" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="CC14" s="1" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="CD14" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="CE14" s="1" t="n">
         <v>10</v>
@@ -6564,13 +8639,13 @@
         <v>16823961</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>2006</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>0</v>
@@ -6600,13 +8675,13 @@
         <v>0</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="S15" s="1" t="n">
         <v>845</v>
@@ -6860,13 +8935,13 @@
         <v>21533090</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>2011</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>0</v>
@@ -6896,13 +8971,13 @@
         <v>0</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="S16" s="1" t="n">
         <v>784</v>
@@ -7156,13 +9231,13 @@
         <v>14532352</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>2003</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>0</v>
@@ -7192,13 +9267,13 @@
         <v>0</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="S17" s="1" t="n">
         <v>735</v>
@@ -7452,13 +9527,13 @@
         <v>20061580</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>2010</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>0</v>
@@ -7488,49 +9563,49 @@
         <v>0</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="S18" s="1" t="n">
         <v>167</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="W18" s="1" t="n">
         <v>12</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AA18" s="1" t="n">
         <v>428</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AE18" s="1" t="n">
         <v>275</v>
@@ -7772,13 +9847,13 @@
         <v>15028209</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>2004</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>0</v>
@@ -7808,13 +9883,13 @@
         <v>0</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="S19" s="1" t="n">
         <v>634</v>
@@ -8068,13 +10143,13 @@
         <v>12657046</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>2003</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>0</v>
@@ -8104,13 +10179,13 @@
         <v>0</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="S20" s="1" t="n">
         <v>613</v>
@@ -8364,13 +10439,13 @@
         <v>17704769</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>2007</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>0</v>
@@ -8400,37 +10475,37 @@
         <v>0</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="S21" s="1" t="n">
         <v>53</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="W21" s="1" t="n">
         <v>2</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AA21" s="1" t="n">
         <v>606</v>
@@ -8676,13 +10751,13 @@
         <v>17432890</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>2007</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>0</v>
@@ -8712,13 +10787,13 @@
         <v>0</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="S22" s="1" t="n">
         <v>577</v>
@@ -8972,13 +11047,13 @@
         <v>11231151</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>2001</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>0</v>
@@ -9008,157 +11083,157 @@
         <v>0</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="S23" s="1" t="n">
         <v>100</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="W23" s="1" t="n">
         <v>29</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AA23" s="1" t="n">
         <v>37</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AE23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AF23" s="1" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="AH23" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AI23" s="1" t="n">
         <v>4</v>
       </c>
       <c r="AJ23" s="1" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="AK23" s="1" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="AL23" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AM23" s="1" t="n">
         <v>15</v>
       </c>
       <c r="AN23" s="1" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="AO23" s="1" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="AP23" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AQ23" s="1" t="n">
         <v>332</v>
       </c>
       <c r="AR23" s="1" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="AS23" s="1" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AU23" s="1" t="n">
         <v>5</v>
       </c>
       <c r="AV23" s="1" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="AW23" s="1" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="AX23" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AY23" s="1" t="n">
         <v>8</v>
       </c>
       <c r="AZ23" s="1" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="BA23" s="1" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="BB23" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BC23" s="1" t="n">
         <v>233</v>
       </c>
       <c r="BD23" s="1" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="BE23" s="1" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="BF23" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BG23" s="1" t="n">
         <v>114</v>
       </c>
       <c r="BH23" s="1" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="BI23" s="1" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="BJ23" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BK23" s="1" t="n">
         <v>3</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="BM23" s="1" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="BN23" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BO23" s="1" t="n">
         <v>3</v>
@@ -9364,13 +11439,13 @@
         <v>17417969</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>2007</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>0</v>
@@ -9400,193 +11475,193 @@
         <v>0</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="S24" s="1" t="n">
         <v>1203</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="W24" s="1" t="n">
         <v>8</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AA24" s="1" t="n">
         <v>257</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AE24" s="1" t="n">
         <v>17</v>
       </c>
       <c r="AF24" s="1" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="AH24" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AI24" s="1" t="n">
         <v>20</v>
       </c>
       <c r="AJ24" s="1" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="AK24" s="1" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="AL24" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AM24" s="1" t="n">
         <v>34</v>
       </c>
       <c r="AN24" s="1" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="AO24" s="1" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="AP24" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AQ24" s="1" t="n">
         <v>156</v>
       </c>
       <c r="AR24" s="1" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="AS24" s="1" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AU24" s="1" t="n">
         <v>106</v>
       </c>
       <c r="AV24" s="1" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="AW24" s="1" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="AX24" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AY24" s="1" t="n">
         <v>742</v>
       </c>
       <c r="AZ24" s="1" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="BA24" s="1" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="BB24" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BC24" s="1" t="n">
         <v>107</v>
       </c>
       <c r="BD24" s="1" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="BE24" s="1" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="BF24" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BG24" s="1" t="n">
         <v>663</v>
       </c>
       <c r="BH24" s="1" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="BI24" s="1" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="BJ24" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BK24" s="1" t="n">
         <v>1335</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="BM24" s="1" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="BN24" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BO24" s="1" t="n">
         <v>1236</v>
       </c>
       <c r="BP24" s="1" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="BQ24" s="1" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="BR24" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BS24" s="1" t="n">
         <v>45</v>
       </c>
       <c r="BT24" s="1" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="BU24" s="1" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="BV24" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BW24" s="1" t="n">
         <v>21</v>
       </c>
       <c r="BX24" s="1" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="BY24" s="1" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="BZ24" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="CA24" s="1" t="n">
         <v>22</v>
@@ -9780,13 +11855,13 @@
         <v>14576278</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>2003</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>0</v>
@@ -9816,13 +11891,13 @@
         <v>0</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="S25" s="1" t="n">
         <v>503</v>
@@ -10076,13 +12151,13 @@
         <v>16429126</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>2006</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>638</v>
@@ -10112,13 +12187,13 @@
         <v>638</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="S26" s="1" t="n">
         <v>638</v>
@@ -10372,13 +12447,13 @@
         <v>21529718</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>2011</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>0</v>
@@ -10408,85 +12483,85 @@
         <v>0</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="S27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="W27" s="1" t="n">
         <v>2</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AA27" s="1" t="n">
         <v>107</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AE27" s="1" t="n">
         <v>280</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>219</v>
+        <v>15</v>
       </c>
       <c r="AH27" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AI27" s="1" t="n">
         <v>22</v>
       </c>
       <c r="AJ27" s="1" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="AL27" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AM27" s="1" t="n">
         <v>414</v>
       </c>
       <c r="AN27" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="AO27" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AP27" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AQ27" s="1" t="n">
         <v>22</v>
@@ -10716,13 +12791,13 @@
         <v>11256614</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>2000</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>0</v>
@@ -10752,241 +12827,241 @@
         <v>0</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="S28" s="1" t="n">
         <v>70</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="W28" s="1" t="n">
         <v>4</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AA28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AE28" s="1" t="n">
         <v>6</v>
       </c>
       <c r="AF28" s="1" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="AG28" s="1" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="AH28" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AI28" s="1" t="n">
         <v>13</v>
       </c>
       <c r="AJ28" s="1" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="AK28" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="AL28" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AM28" s="1" t="n">
         <v>10</v>
       </c>
       <c r="AN28" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="AO28" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AP28" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AQ28" s="1" t="n">
         <v>2</v>
       </c>
       <c r="AR28" s="1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="AS28" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AU28" s="1" t="n">
         <v>7</v>
       </c>
       <c r="AV28" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="AW28" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AX28" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AY28" s="1" t="n">
         <v>45</v>
       </c>
       <c r="AZ28" s="1" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="BA28" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="BB28" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="BC28" s="1" t="n">
         <v>6</v>
       </c>
       <c r="BD28" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="BE28" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="BF28" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="BG28" s="1" t="n">
         <v>16</v>
       </c>
       <c r="BH28" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="BI28" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="BJ28" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="BK28" s="1" t="n">
         <v>6</v>
       </c>
       <c r="BL28" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="BM28" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="BN28" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="BO28" s="1" t="n">
         <v>51</v>
       </c>
       <c r="BP28" s="1" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="BQ28" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="BR28" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="BS28" s="1" t="n">
         <v>79</v>
       </c>
       <c r="BT28" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="BU28" s="1" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="BV28" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="BW28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="BX28" s="1" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="BY28" s="1" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="BZ28" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="CA28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="CB28" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="CC28" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="CD28" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="CE28" s="1" t="n">
         <v>92</v>
       </c>
       <c r="CF28" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="CG28" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="CH28" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="CI28" s="1" t="n">
         <v>18</v>
       </c>
       <c r="CJ28" s="1" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="CK28" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="CL28" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="CM28" s="1" t="n">
         <v>25</v>
       </c>
       <c r="CN28" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="CO28" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="CP28" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="CQ28" s="1" t="n">
         <v>15</v>
@@ -11164,13 +13239,13 @@
         <v>17644812</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>2007</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>0</v>
@@ -11200,13 +13275,13 @@
         <v>0</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="S29" s="1" t="n">
         <v>436</v>
@@ -11460,13 +13535,13 @@
         <v>16618929</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>2006</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>0</v>
@@ -11496,85 +13571,85 @@
         <v>0</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="S30" s="1" t="n">
         <v>85</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="W30" s="1" t="n">
         <v>24</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AA30" s="1" t="n">
         <v>59</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AD30" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AE30" s="1" t="n">
         <v>59</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="AG30" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="AH30" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AI30" s="1" t="n">
         <v>24</v>
       </c>
       <c r="AJ30" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AK30" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="AL30" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AM30" s="1" t="n">
         <v>174</v>
       </c>
       <c r="AN30" s="1" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="AO30" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AP30" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AQ30" s="1" t="n">
         <v>88</v>
@@ -11804,13 +13879,13 @@
         <v>18433294</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>2008</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>0</v>
@@ -11840,73 +13915,73 @@
         <v>0</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="S31" s="1" t="n">
         <v>3</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="W31" s="1" t="n">
         <v>3</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AA31" s="1" t="n">
         <v>413</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AE31" s="1" t="n">
         <v>20</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AH31" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AI31" s="1" t="n">
         <v>16</v>
       </c>
       <c r="AJ31" s="1" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="AK31" s="1" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="AL31" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AM31" s="1" t="n">
         <v>1</v>
@@ -12140,13 +14215,13 @@
         <v>17151019</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>2007</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>0</v>
@@ -12176,13 +14251,13 @@
         <v>0</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="S32" s="1" t="n">
         <v>401</v>
@@ -12436,13 +14511,13 @@
         <v>14671022</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>2004</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>0</v>
@@ -12472,13 +14547,13 @@
         <v>0</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="S33" s="1" t="n">
         <v>392</v>
@@ -12732,13 +14807,13 @@
         <v>12529643</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E34" s="1" t="n">
         <v>2003</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>0</v>
@@ -12768,25 +14843,25 @@
         <v>0</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="S34" s="1" t="n">
         <v>3</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="W34" s="1" t="n">
         <v>636</v>
@@ -13036,13 +15111,13 @@
         <v>12445391</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E35" s="1" t="n">
         <v>2002</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>0</v>
@@ -13072,217 +15147,217 @@
         <v>0</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="S35" s="1" t="n">
         <v>75</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="W35" s="1" t="n">
         <v>13</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AA35" s="1" t="n">
         <v>73</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>219</v>
+        <v>15</v>
       </c>
       <c r="AD35" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AE35" s="1" t="n">
         <v>9</v>
       </c>
       <c r="AF35" s="1" t="s">
-        <v>262</v>
+        <v>25</v>
       </c>
       <c r="AG35" s="1" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="AH35" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AI35" s="1" t="n">
         <v>15</v>
       </c>
       <c r="AJ35" s="1" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="AK35" s="1" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="AL35" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AM35" s="1" t="n">
         <v>15</v>
       </c>
       <c r="AN35" s="1" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="AO35" s="1" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="AP35" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AQ35" s="1" t="n">
         <v>15</v>
       </c>
       <c r="AR35" s="1" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="AS35" s="1" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="AT35" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AU35" s="1" t="n">
         <v>53</v>
       </c>
       <c r="AV35" s="1" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="AW35" s="1" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="AX35" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AY35" s="1" t="n">
         <v>20</v>
       </c>
       <c r="AZ35" s="1" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="BA35" s="1" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="BB35" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BC35" s="1" t="n">
         <v>3</v>
       </c>
       <c r="BD35" s="1" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="BE35" s="1" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="BF35" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BG35" s="1" t="n">
         <v>342</v>
       </c>
       <c r="BH35" s="1" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="BI35" s="1" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="BJ35" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BK35" s="1" t="n">
         <v>17</v>
       </c>
       <c r="BL35" s="1" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="BM35" s="1" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="BN35" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BO35" s="1" t="n">
         <v>6</v>
       </c>
       <c r="BP35" s="1" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="BQ35" s="1" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="BR35" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BS35" s="1" t="n">
         <v>128</v>
       </c>
       <c r="BT35" s="1" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="BU35" s="1" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="BV35" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BW35" s="1" t="n">
         <v>76</v>
       </c>
       <c r="BX35" s="1" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="BY35" s="1" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="BZ35" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="CA35" s="1" t="n">
         <v>3</v>
       </c>
       <c r="CB35" s="1" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="CC35" s="1" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="CD35" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="CE35" s="1" t="n">
         <v>1</v>
       </c>
       <c r="CF35" s="1" t="s">
-        <v>264</v>
+        <v>38</v>
       </c>
       <c r="CG35" s="1" t="s">
-        <v>265</v>
+        <v>8</v>
       </c>
       <c r="CH35" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="CI35" s="1" t="n">
         <v>53</v>
@@ -13468,13 +15543,13 @@
         <v>15539469</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E36" s="1" t="n">
         <v>2004</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>0</v>
@@ -13504,13 +15579,13 @@
         <v>0</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="S36" s="1" t="n">
         <v>380</v>
@@ -13764,13 +15839,13 @@
         <v>12865426</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E37" s="1" t="n">
         <v>2003</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>0</v>
@@ -13800,13 +15875,13 @@
         <v>0</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="S37" s="1" t="n">
         <v>375</v>
@@ -14060,13 +16135,13 @@
         <v>16189514</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E38" s="1" t="n">
         <v>2005</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G38" s="1" t="n">
         <v>509</v>
@@ -14096,25 +16171,25 @@
         <v>509</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="S38" s="1" t="n">
         <v>480</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="W38" s="1" t="n">
         <v>29</v>
@@ -14364,13 +16439,13 @@
         <v>20422638</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E39" s="1" t="n">
         <v>2010</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G39" s="1" t="n">
         <v>0</v>
@@ -14400,13 +16475,13 @@
         <v>0</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="S39" s="1" t="n">
         <v>338</v>
@@ -14660,13 +16735,13 @@
         <v>12938931</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E40" s="1" t="n">
         <v>2003</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>0</v>
@@ -14696,13 +16771,13 @@
         <v>0</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="S40" s="1" t="n">
         <v>328</v>
@@ -14956,13 +17031,13 @@
         <v>16336044</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E41" s="1" t="n">
         <v>2006</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="G41" s="1" t="n">
         <v>1</v>
@@ -14992,61 +17067,61 @@
         <v>0</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="S41" s="1" t="n">
         <v>2</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="W41" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AA41" s="1" t="n">
         <v>319</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AC41" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AD41" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AE41" s="1" t="n">
         <v>6</v>
       </c>
       <c r="AF41" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AG41" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AH41" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AI41" s="1" t="n">
         <v>1</v>
@@ -15284,13 +17359,13 @@
         <v>18633119</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E42" s="1" t="n">
         <v>2008</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G42" s="1" t="n">
         <v>0</v>
@@ -15320,25 +17395,25 @@
         <v>0</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="S42" s="1" t="n">
         <v>53</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="W42" s="1" t="n">
         <v>259</v>
@@ -15588,13 +17663,13 @@
         <v>11914276</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E43" s="1" t="n">
         <v>2002</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>0</v>
@@ -15624,85 +17699,85 @@
         <v>0</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="S43" s="1" t="n">
         <v>4</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="W43" s="1" t="n">
         <v>24</v>
       </c>
       <c r="X43" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="Z43" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AA43" s="1" t="n">
         <v>3</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AC43" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="AD43" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AE43" s="1" t="n">
         <v>21</v>
       </c>
       <c r="AF43" s="1" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AG43" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AH43" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AI43" s="1" t="n">
         <v>58</v>
       </c>
       <c r="AJ43" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="AK43" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AL43" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AM43" s="1" t="n">
         <v>217</v>
       </c>
       <c r="AN43" s="1" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="AO43" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AP43" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AQ43" s="1" t="n">
         <v>4</v>
@@ -15932,13 +18007,13 @@
         <v>11099033</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E44" s="1" t="n">
         <v>2000</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G44" s="1" t="n">
         <v>0</v>
@@ -15968,349 +18043,349 @@
         <v>0</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="S44" s="1" t="n">
         <v>35</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="W44" s="1" t="n">
         <v>4</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="Z44" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AA44" s="1" t="n">
         <v>8</v>
       </c>
       <c r="AB44" s="1" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="AD44" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AE44" s="1" t="n">
         <v>5</v>
       </c>
       <c r="AF44" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="AG44" s="1" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="AH44" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AI44" s="1" t="n">
         <v>56</v>
       </c>
       <c r="AJ44" s="1" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="AK44" s="1" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="AL44" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AM44" s="1" t="n">
         <v>204</v>
       </c>
       <c r="AN44" s="1" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="AO44" s="1" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="AP44" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AQ44" s="1" t="n">
         <v>23</v>
       </c>
       <c r="AR44" s="1" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="AS44" s="1" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="AT44" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AU44" s="1" t="n">
         <v>4</v>
       </c>
       <c r="AV44" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AW44" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AX44" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AY44" s="1" t="n">
         <v>6</v>
       </c>
       <c r="AZ44" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="BA44" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="BB44" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BC44" s="1" t="n">
         <v>4</v>
       </c>
       <c r="BD44" s="1" t="s">
-        <v>262</v>
+        <v>25</v>
       </c>
       <c r="BE44" s="1" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="BF44" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BG44" s="1" t="n">
         <v>5</v>
       </c>
       <c r="BH44" s="1" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="BI44" s="1" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="BJ44" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BK44" s="1" t="n">
         <v>38</v>
       </c>
       <c r="BL44" s="1" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="BM44" s="1" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="BN44" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BO44" s="1" t="n">
         <v>71</v>
       </c>
       <c r="BP44" s="1" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="BQ44" s="1" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="BR44" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BS44" s="1" t="n">
         <v>1</v>
       </c>
       <c r="BT44" s="1" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="BU44" s="1" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="BV44" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BW44" s="1" t="n">
         <v>109</v>
       </c>
       <c r="BX44" s="1" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="BY44" s="1" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="BZ44" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="CA44" s="1" t="n">
         <v>61</v>
       </c>
       <c r="CB44" s="1" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="CC44" s="1" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="CD44" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="CE44" s="1" t="n">
         <v>36</v>
       </c>
       <c r="CF44" s="1" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="CG44" s="1" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="CH44" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="CI44" s="1" t="n">
         <v>1</v>
       </c>
       <c r="CJ44" s="1" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="CK44" s="1" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="CL44" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="CM44" s="1" t="n">
         <v>1</v>
       </c>
       <c r="CN44" s="1" t="s">
-        <v>264</v>
+        <v>38</v>
       </c>
       <c r="CO44" s="1" t="s">
-        <v>265</v>
+        <v>8</v>
       </c>
       <c r="CP44" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="CQ44" s="1" t="n">
         <v>2</v>
       </c>
       <c r="CR44" s="1" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="CS44" s="1" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="CT44" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="CU44" s="1" t="n">
         <v>11</v>
       </c>
       <c r="CV44" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="CW44" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="CX44" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="CY44" s="1" t="n">
         <v>1</v>
       </c>
       <c r="CZ44" s="1" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="DA44" s="1" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="DB44" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="DC44" s="1" t="n">
         <v>13</v>
       </c>
       <c r="DD44" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="DE44" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="DF44" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="DG44" s="1" t="n">
         <v>7</v>
       </c>
       <c r="DH44" s="1" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="DI44" s="1" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="DJ44" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="DK44" s="1" t="n">
         <v>9</v>
       </c>
       <c r="DL44" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="DM44" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="DN44" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="DO44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="DP44" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="DQ44" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="DR44" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="DS44" s="1" t="n">
         <v>1</v>
       </c>
       <c r="DT44" s="1" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="DU44" s="1" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="DV44" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="DW44" s="1" t="n">
         <v>1</v>
       </c>
       <c r="DX44" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="DY44" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="DZ44" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="EA44" s="1" t="n">
         <v>2</v>
@@ -16452,13 +18527,13 @@
         <v>11099034</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E45" s="1" t="n">
         <v>2000</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G45" s="1" t="n">
         <v>0</v>
@@ -16488,97 +18563,97 @@
         <v>0</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="S45" s="1" t="n">
         <v>52</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="W45" s="1" t="n">
         <v>19</v>
       </c>
       <c r="X45" s="1" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="Z45" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AA45" s="1" t="n">
         <v>4</v>
       </c>
       <c r="AB45" s="1" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="AC45" s="1" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="AD45" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AE45" s="1" t="n">
         <v>23</v>
       </c>
       <c r="AF45" s="1" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="AG45" s="1" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="AH45" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AI45" s="1" t="n">
         <v>304</v>
       </c>
       <c r="AJ45" s="1" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="AK45" s="1" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="AL45" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AM45" s="1" t="n">
         <v>44</v>
       </c>
       <c r="AN45" s="1" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="AO45" s="1" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="AP45" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AQ45" s="1" t="n">
         <v>52</v>
       </c>
       <c r="AR45" s="1" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="AS45" s="1" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="AT45" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AU45" s="1" t="n">
         <v>1</v>
@@ -16804,13 +18879,13 @@
         <v>11591653</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E46" s="1" t="n">
         <v>2001</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="G46" s="1" t="n">
         <v>433</v>
@@ -16840,25 +18915,25 @@
         <v>433</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="S46" s="1" t="n">
         <v>377</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="W46" s="1" t="n">
         <v>56</v>
@@ -17108,13 +19183,13 @@
         <v>16502469</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E47" s="1" t="n">
         <v>2006</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G47" s="1" t="n">
         <v>0</v>
@@ -17144,13 +19219,13 @@
         <v>0</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="S47" s="1" t="n">
         <v>260</v>
@@ -17404,13 +19479,13 @@
         <v>12529438</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E48" s="1" t="n">
         <v>2003</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G48" s="1" t="n">
         <v>0</v>
@@ -17440,49 +19515,49 @@
         <v>0</v>
       </c>
       <c r="P48" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="R48" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="S48" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="W48" s="1" t="n">
         <v>10</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Z48" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AA48" s="1" t="n">
         <v>9</v>
       </c>
       <c r="AB48" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AD48" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AE48" s="1" t="n">
         <v>239</v>
@@ -17724,13 +19799,13 @@
         <v>17412918</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E49" s="1" t="n">
         <v>2007</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G49" s="1" t="n">
         <v>0</v>
@@ -17760,193 +19835,193 @@
         <v>0</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="S49" s="1" t="n">
         <v>7</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="W49" s="1" t="n">
         <v>1</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AA49" s="1" t="n">
         <v>4</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AE49" s="1" t="n">
         <v>215</v>
       </c>
       <c r="AF49" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AG49" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AH49" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AI49" s="1" t="n">
         <v>10</v>
       </c>
       <c r="AJ49" s="1" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="AK49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AL49" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AM49" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AN49" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AO49" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AP49" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AQ49" s="1" t="n">
         <v>100</v>
       </c>
       <c r="AR49" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AS49" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AT49" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="AU49" s="1" t="n">
         <v>2</v>
       </c>
       <c r="AV49" s="1" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="AW49" s="1" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="AX49" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="AY49" s="1" t="n">
         <v>10</v>
       </c>
       <c r="AZ49" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="BA49" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="BB49" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BC49" s="1" t="n">
         <v>5</v>
       </c>
       <c r="BD49" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="BE49" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="BF49" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="BG49" s="1" t="n">
         <v>2</v>
       </c>
       <c r="BH49" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="BI49" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="BJ49" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="BK49" s="1" t="n">
         <v>10</v>
       </c>
       <c r="BL49" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="BM49" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="BN49" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BO49" s="1" t="n">
         <v>10</v>
       </c>
       <c r="BP49" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="BQ49" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="BR49" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="BS49" s="1" t="n">
         <v>6</v>
       </c>
       <c r="BT49" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="BU49" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="BV49" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="BW49" s="1" t="n">
         <v>3</v>
       </c>
       <c r="BX49" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="BY49" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="BZ49" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="CA49" s="1" t="n">
         <v>11</v>
@@ -18140,13 +20215,13 @@
         <v>18981222</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E50" s="1" t="n">
         <v>2009</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G50" s="1" t="n">
         <v>0</v>
@@ -18176,25 +20251,25 @@
         <v>0</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="S50" s="1" t="n">
         <v>170</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="W50" s="1" t="n">
         <v>227</v>
@@ -18444,13 +20519,13 @@
         <v>16287169</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E51" s="1" t="n">
         <v>2006</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G51" s="1" t="n">
         <v>0</v>
@@ -18480,25 +20555,25 @@
         <v>0</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="S51" s="1" t="n">
         <v>160</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="W51" s="1" t="n">
         <v>103</v>
@@ -19576,49 +21651,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:IV53"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A22" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B4" activeCellId="0" pane="topLeft" sqref="B4"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.2274509803922"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.243137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="59.0745098039216"/>
-    <col collapsed="false" hidden="false" max="256" min="10" style="0" width="7.58823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.0357142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.1964285714286"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="58.8482142857143"/>
+    <col collapsed="false" hidden="false" max="256" min="10" style="0" width="7.55803571428571"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -19870,7 +21946,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="102.2" outlineLevel="0" r="2">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>18029348</v>
@@ -19882,7 +21958,7 @@
         <v>11050</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="5" t="n">
@@ -19891,7 +21967,7 @@
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -20143,7 +22219,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.15" outlineLevel="0" r="3">
       <c r="A3" s="3" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>16823372</v>
@@ -20155,7 +22231,7 @@
         <v>7046</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="n">
@@ -20414,7 +22490,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.4" outlineLevel="0" r="4">
       <c r="A4" s="3" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>18614015</v>
@@ -20426,7 +22502,7 @@
         <v>2412</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="n">
@@ -20685,7 +22761,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="85.05" outlineLevel="0" r="5">
       <c r="A5" s="5" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>14551910</v>
@@ -20697,7 +22773,7 @@
         <v>5918</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="n">
@@ -20706,7 +22782,7 @@
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -20958,7 +23034,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="3" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>14562095</v>
@@ -20970,7 +23046,7 @@
         <v>1863</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="n">
@@ -21229,7 +23305,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>18431481</v>
@@ -21241,7 +23317,7 @@
         <v>1251</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="n">
@@ -21500,7 +23576,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>15791247</v>
@@ -21512,7 +23588,7 @@
         <v>1476</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="n">
@@ -21771,7 +23847,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="3" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>14651853</v>
@@ -21783,7 +23859,7 @@
         <v>1213</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="n">
@@ -22042,7 +24118,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="3" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>17317660</v>
@@ -22054,7 +24130,7 @@
         <v>1136</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="n">
@@ -22313,7 +24389,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="83.55" outlineLevel="0" r="11">
       <c r="A11" s="5" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B11" s="5" t="n">
         <v>12529635</v>
@@ -22325,7 +24401,7 @@
         <v>2269</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="n">
@@ -22334,7 +24410,7 @@
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -22586,7 +24662,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="A12" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>15525680</v>
@@ -22598,7 +24674,7 @@
         <v>1365</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="n">
@@ -22857,7 +24933,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="A13" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>21166475</v>
@@ -22869,7 +24945,7 @@
         <v>1041</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="n">
@@ -23128,7 +25204,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>15489339</v>
@@ -23140,7 +25216,7 @@
         <v>1533</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="n">
@@ -23399,7 +25475,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="3" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>16823961</v>
@@ -23411,10 +25487,10 @@
         <v>845</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G15" s="3" t="n">
         <f aca="false">D15/C15</f>
@@ -23672,7 +25748,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>21533090</v>
@@ -23684,7 +25760,7 @@
         <v>784</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="n">
@@ -23943,7 +26019,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="A17" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>14532352</v>
@@ -23955,7 +26031,7 @@
         <v>735</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="n">
@@ -24214,7 +26290,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="A18" s="3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>20061580</v>
@@ -24226,10 +26302,10 @@
         <v>882</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G18" s="3" t="n">
         <f aca="false">D18/C18</f>
@@ -24487,7 +26563,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
       <c r="A19" s="3" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>15028209</v>
@@ -24499,10 +26575,10 @@
         <v>634</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="G19" s="3" t="n">
         <f aca="false">D19/C19</f>
@@ -24760,7 +26836,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
       <c r="A20" s="3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B20" s="3" t="n">
         <v>12657046</v>
@@ -24772,10 +26848,10 @@
         <v>613</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G20" s="3" t="n">
         <f aca="false">D20/C20</f>
@@ -25033,7 +27109,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="A21" s="3" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B21" s="3" t="n">
         <v>17704769</v>
@@ -25045,7 +27121,7 @@
         <v>661</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="n">
@@ -25304,7 +27380,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
       <c r="A22" s="3" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>17432890</v>
@@ -25316,10 +27392,10 @@
         <v>577</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G22" s="3" t="n">
         <f aca="false">D22/C22</f>
@@ -25577,7 +27653,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="A23" s="3" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>11231151</v>
@@ -25589,7 +27665,7 @@
         <v>884</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="n">
@@ -25848,7 +27924,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="76.85" outlineLevel="0" r="24">
       <c r="A24" s="5" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B24" s="5" t="n">
         <v>17417969</v>
@@ -25860,7 +27936,7 @@
         <v>5972</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="n">
@@ -25869,7 +27945,7 @@
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -26121,7 +28197,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="A25" s="3" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>14576278</v>
@@ -26133,10 +28209,10 @@
         <v>503</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G25" s="3" t="n">
         <f aca="false">D25/C25</f>
@@ -26394,7 +28470,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="A26" s="3" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B26" s="3" t="n">
         <v>16429126</v>
@@ -26406,10 +28482,10 @@
         <v>638</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G26" s="3" t="n">
         <f aca="false">D26/C26</f>
@@ -26667,7 +28743,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="A27" s="3" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B27" s="3" t="n">
         <v>21529718</v>
@@ -26679,7 +28755,7 @@
         <v>848</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="n">
@@ -26938,7 +29014,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="A28" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B28" s="3" t="n">
         <v>11256614</v>
@@ -26950,7 +29026,7 @@
         <v>468</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="n">
@@ -27209,7 +29285,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="A29" s="3" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B29" s="3" t="n">
         <v>17644812</v>
@@ -27221,7 +29297,7 @@
         <v>436</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="n">
@@ -27480,7 +29556,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
       <c r="A30" s="3" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B30" s="3" t="n">
         <v>16618929</v>
@@ -27492,7 +29568,7 @@
         <v>513</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="n">
@@ -27751,7 +29827,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
       <c r="A31" s="3" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B31" s="3" t="n">
         <v>18433294</v>
@@ -27763,7 +29839,7 @@
         <v>456</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="n">
@@ -28022,7 +30098,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="32">
       <c r="A32" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B32" s="3" t="n">
         <v>17151019</v>
@@ -28034,7 +30110,7 @@
         <v>401</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="n">
@@ -28293,7 +30369,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
       <c r="A33" s="3" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B33" s="3" t="n">
         <v>14671022</v>
@@ -28305,7 +30381,7 @@
         <v>392</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3" t="n">
@@ -28564,7 +30640,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
       <c r="A34" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B34" s="3" t="n">
         <v>12529643</v>
@@ -28576,7 +30652,7 @@
         <v>639</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="n">
@@ -28835,7 +30911,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="77.6" outlineLevel="0" r="35">
       <c r="A35" s="5" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B35" s="5" t="n">
         <v>12445391</v>
@@ -28847,7 +30923,7 @@
         <v>917</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5" t="n">
@@ -28856,7 +30932,7 @@
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -29108,7 +31184,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
       <c r="A36" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B36" s="3" t="n">
         <v>15539469</v>
@@ -29120,10 +31196,10 @@
         <v>380</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G36" s="3" t="n">
         <f aca="false">D36/C36</f>
@@ -29381,7 +31457,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
       <c r="A37" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B37" s="3" t="n">
         <v>12865426</v>
@@ -29393,10 +31469,10 @@
         <v>375</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G37" s="3" t="n">
         <f aca="false">D37/C37</f>
@@ -29654,7 +31730,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
       <c r="A38" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B38" s="3" t="n">
         <v>16189514</v>
@@ -29666,7 +31742,7 @@
         <v>509</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="n">
@@ -29925,7 +32001,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
       <c r="A39" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B39" s="3" t="n">
         <v>20422638</v>
@@ -29937,7 +32013,7 @@
         <v>338</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="n">
@@ -30196,7 +32272,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
       <c r="A40" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B40" s="3" t="n">
         <v>12938931</v>
@@ -30208,7 +32284,7 @@
         <v>328</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="n">
@@ -30467,7 +32543,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
       <c r="A41" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B41" s="3" t="n">
         <v>16336044</v>
@@ -30479,7 +32555,7 @@
         <v>329</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="n">
@@ -30738,7 +32814,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
       <c r="A42" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B42" s="3" t="n">
         <v>18633119</v>
@@ -30750,7 +32826,7 @@
         <v>312</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="n">
@@ -31009,7 +33085,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
       <c r="A43" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B43" s="3" t="n">
         <v>11914276</v>
@@ -31021,7 +33097,7 @@
         <v>331</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3" t="n">
@@ -31280,7 +33356,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="76.85" outlineLevel="0" r="44">
       <c r="A44" s="5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B44" s="5" t="n">
         <v>11099033</v>
@@ -31292,7 +33368,7 @@
         <v>761</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5" t="n">
@@ -31301,7 +33377,7 @@
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -31553,7 +33629,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
       <c r="A45" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B45" s="3" t="n">
         <v>11099034</v>
@@ -31565,7 +33641,7 @@
         <v>499</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3" t="n">
@@ -31824,7 +33900,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="46">
       <c r="A46" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B46" s="3" t="n">
         <v>11591653</v>
@@ -31836,7 +33912,7 @@
         <v>433</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3" t="n">
@@ -32095,7 +34171,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
       <c r="A47" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B47" s="3" t="n">
         <v>16502469</v>
@@ -32107,7 +34183,7 @@
         <v>260</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="n">
@@ -32366,7 +34442,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
       <c r="A48" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B48" s="3" t="n">
         <v>12529438</v>
@@ -32378,7 +34454,7 @@
         <v>259</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3" t="n">
@@ -32637,7 +34713,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="49">
       <c r="A49" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B49" s="3" t="n">
         <v>17412918</v>
@@ -32649,7 +34725,7 @@
         <v>397</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="n">
@@ -32908,7 +34984,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
       <c r="A50" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B50" s="3" t="n">
         <v>18981222</v>
@@ -32920,7 +34996,7 @@
         <v>397</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3" t="n">
@@ -33179,7 +35255,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
       <c r="A51" s="3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B51" s="3" t="n">
         <v>16287169</v>
@@ -33191,7 +35267,7 @@
         <v>263</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3" t="n">
@@ -33455,7 +35531,7 @@
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G52" s="3" t="n">
         <f aca="false">MEDIAN(G2:G51)</f>
@@ -33718,7 +35794,7 @@
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G53" s="3" t="n">
         <f aca="false">AVERAGE(G2:G51)</f>
